--- a/Test data/TC09_ManageSchedule.xlsx
+++ b/Test data/TC09_ManageSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD71A80D-9FFA-4120-AA2D-70EEAE02DFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7B2114-FF56-479D-8D3A-D5E2CEBCCCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="65">
   <si>
     <t>TDID</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>Username</t>
@@ -657,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -684,111 +681,109 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="K1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="P1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="S1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
@@ -796,55 +791,53 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
@@ -852,19 +845,17 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -878,7 +869,7 @@
       <c r="O4" s="6"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
@@ -886,34 +877,32 @@
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -922,7 +911,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -930,19 +919,17 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -950,25 +937,25 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
@@ -976,22 +963,20 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -999,22 +984,22 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -1022,45 +1007,43 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L8" s="12"/>
       <c r="M8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
@@ -1068,45 +1051,43 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M9" s="12"/>
       <c r="N9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
@@ -1114,45 +1095,43 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
@@ -1160,45 +1139,43 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O11" s="12"/>
       <c r="P11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
@@ -1206,55 +1183,53 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -1262,55 +1237,55 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1318,55 +1293,55 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1374,55 +1349,55 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -1430,55 +1405,55 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -1486,55 +1461,55 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -1542,55 +1517,55 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -1598,55 +1573,55 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -1654,55 +1629,55 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -1710,55 +1685,55 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>

--- a/Test data/TC09_ManageSchedule.xlsx
+++ b/Test data/TC09_ManageSchedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F7F315-9373-4ED1-9C9C-9AF8FCF7B6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1102721-7680-4DF2-9F89-4A62A3CA7F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3537,8 +3537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A956" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="F982" sqref="F982"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="D983" sqref="D983"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -3552,9 +3552,7 @@
     <col min="11" max="15" width="23.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="73.90625" style="2" customWidth="1"/>
-    <col min="18" max="20" width="14.7265625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="9" style="2"/>
-    <col min="22" max="22" width="13.26953125" style="2" customWidth="1"/>
+    <col min="18" max="22" width="15.7265625" style="2" customWidth="1"/>
     <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
